--- a/plots/percentile_multipath.xlsx
+++ b/plots/percentile_multipath.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CBE6411-52E5-884A-9129-F4F998C497D3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046DD231-06B7-E44F-A9C3-8B8C6DBEDA3C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{2976FF48-BD71-974D-ADF9-DAEC81B7A04B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{2976FF48-BD71-974D-ADF9-DAEC81B7A04B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$121</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$121</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$121</definedName>
     <definedName name="percentile_multipath_out" localSheetId="0">Sheet1!$A$2:$B$121</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,8 +34,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{4DB9ADE2-69DA-1640-80F7-5503355E2E6F}" name="percentile_multipath_out" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tobiasba/repos/experimentscripts/out-dir/percentile_multipath_out.csv" thousands="'" tab="0" comma="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="percentile_multipath_out" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/tobiasba/repos/experimentscripts/out-dir/percentile_multipath_out.csv" thousands="'" tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -125,7 +130,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -138,14 +143,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>99.9</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
               <a:t> Percentile 3-hop-path</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -162,7 +167,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -207,7 +212,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2001,7 +2006,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2033,12 +2038,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2082,7 +2082,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2095,14 +2095,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>99.9</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
               <a:t> Percentile 3-hop-path</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2119,7 +2119,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2164,7 +2164,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3959,7 +3959,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3991,12 +3991,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5135,16 +5130,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5171,16 +5166,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5211,7 +5206,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="percentile_multipath_out" connectionId="1" xr16:uid="{B0E550CB-2CC5-5641-8DB6-9ACA80501DCA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="percentile_multipath_out" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5513,8 +5508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D574AE0-42BB-2040-8A13-077EAA4A669C}">
   <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/plots/percentile_multipath.xlsx
+++ b/plots/percentile_multipath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046DD231-06B7-E44F-A9C3-8B8C6DBEDA3C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63C3FC5-9CFA-6047-8AE7-AAC1717A4EC7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{2976FF48-BD71-974D-ADF9-DAEC81B7A04B}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>Measured</t>
   </si>
   <si>
-    <t>Actual</t>
+    <t>Introduced</t>
   </si>
 </sst>
 </file>
@@ -979,7 +979,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual</c:v>
+                  <c:v>Introduced</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1777,7 +1777,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1790,7 +1790,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>s</a:t>
                 </a:r>
               </a:p>
@@ -1809,7 +1809,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1894,7 +1894,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1907,7 +1907,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>ms</a:t>
                 </a:r>
               </a:p>
@@ -1926,7 +1926,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2931,7 +2931,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual</c:v>
+                  <c:v>Introduced</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3729,7 +3729,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3742,7 +3742,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>s</a:t>
                 </a:r>
               </a:p>
@@ -3761,7 +3761,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3847,7 +3847,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3860,7 +3860,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>ms</a:t>
                 </a:r>
               </a:p>
@@ -3879,7 +3879,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5508,8 +5508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D574AE0-42BB-2040-8A13-077EAA4A669C}">
   <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
